--- a/python/true.xlsx
+++ b/python/true.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aviram7168\OvdimProject\ovdim\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDE06F9-03B3-478E-A430-946FF0E6F4ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4CC19-1748-49C8-B781-02ACA0E5394B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{975BF003-F8A7-4304-88FC-1B8FD7EB22BF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7279" uniqueCount="3610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7285" uniqueCount="3611">
   <si>
     <t>garinm@zofim.org.il</t>
   </si>
@@ -10890,12 +10890,15 @@
   <si>
     <t>0524736622</t>
   </si>
+  <si>
+    <t>nadavkemper@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10954,6 +10957,14 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="David"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -11050,10 +11061,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -11185,9 +11197,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11501,8 +11515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15EEA23-7557-443F-93DF-17045EBCC4BF}">
   <dimension ref="A1:K1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A552" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F565" sqref="F565"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38937,6 +38951,9 @@
       <c r="F1034" t="s">
         <v>315</v>
       </c>
+      <c r="G1034" s="45" t="s">
+        <v>3610</v>
+      </c>
       <c r="H1034" s="35" t="s">
         <v>3609</v>
       </c>
@@ -38960,6 +38977,9 @@
       <c r="F1035" t="s">
         <v>3140</v>
       </c>
+      <c r="G1035" t="s">
+        <v>3610</v>
+      </c>
       <c r="H1035" s="35" t="s">
         <v>3609</v>
       </c>
@@ -38983,6 +39003,9 @@
       <c r="F1036" t="s">
         <v>3141</v>
       </c>
+      <c r="G1036" t="s">
+        <v>3610</v>
+      </c>
       <c r="H1036" s="35" t="s">
         <v>3609</v>
       </c>
@@ -39006,6 +39029,9 @@
       <c r="F1037" t="s">
         <v>3142</v>
       </c>
+      <c r="G1037" t="s">
+        <v>3610</v>
+      </c>
       <c r="H1037" s="35" t="s">
         <v>3609</v>
       </c>
@@ -39029,6 +39055,9 @@
       <c r="F1038" t="s">
         <v>315</v>
       </c>
+      <c r="G1038" t="s">
+        <v>3610</v>
+      </c>
       <c r="H1038" s="35" t="s">
         <v>3609</v>
       </c>
@@ -39051,6 +39080,9 @@
       </c>
       <c r="F1039" t="s">
         <v>315</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>3610</v>
       </c>
       <c r="H1039" s="35" t="s">
         <v>3609</v>
@@ -39103,6 +39135,7 @@
     <hyperlink ref="G511" r:id="rId43" xr:uid="{3B17316E-4E29-4E09-BEA6-37C1B4DD85D1}"/>
     <hyperlink ref="G550" r:id="rId44" xr:uid="{C04422DD-93B7-4415-A406-3CA5AC87274A}"/>
     <hyperlink ref="G554" r:id="rId45" xr:uid="{D012BAA7-23D8-46AA-8A39-935732DCE300}"/>
+    <hyperlink ref="G1034" r:id="rId46" xr:uid="{8C81989D-8159-454F-AB93-BD1D77DF68BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
